--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Adam9-Itgav.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Adam9-Itgav.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.32689766666667</v>
+        <v>3.627806666666667</v>
       </c>
       <c r="H2">
-        <v>30.980693</v>
+        <v>10.88342</v>
       </c>
       <c r="I2">
-        <v>0.2044815006034941</v>
+        <v>0.08036675778141429</v>
       </c>
       <c r="J2">
-        <v>0.204481500603494</v>
+        <v>0.08036675778141429</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>16.535604</v>
+        <v>2.724001666666667</v>
       </c>
       <c r="N2">
-        <v>49.606812</v>
+        <v>8.172005</v>
       </c>
       <c r="O2">
-        <v>0.2120453146491552</v>
+        <v>0.04635500474236593</v>
       </c>
       <c r="P2">
-        <v>0.2120453146491552</v>
+        <v>0.04635500474236593</v>
       </c>
       <c r="Q2">
-        <v>170.761490364524</v>
+        <v>9.882151406344445</v>
       </c>
       <c r="R2">
-        <v>1536.853413280716</v>
+        <v>88.93936265710001</v>
       </c>
       <c r="S2">
-        <v>0.04335934413539932</v>
+        <v>0.003725401438086034</v>
       </c>
       <c r="T2">
-        <v>0.04335934413539932</v>
+        <v>0.003725401438086034</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.32689766666667</v>
+        <v>3.627806666666667</v>
       </c>
       <c r="H3">
-        <v>30.980693</v>
+        <v>10.88342</v>
       </c>
       <c r="I3">
-        <v>0.2044815006034941</v>
+        <v>0.08036675778141429</v>
       </c>
       <c r="J3">
-        <v>0.204481500603494</v>
+        <v>0.08036675778141429</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>121.861892</v>
       </c>
       <c r="O3">
-        <v>0.5209011059384622</v>
+        <v>0.6912512390256352</v>
       </c>
       <c r="P3">
-        <v>0.5209011059384622</v>
+        <v>0.6912512390256351</v>
       </c>
       <c r="Q3">
-        <v>419.4850960501284</v>
+        <v>147.3637947367378</v>
       </c>
       <c r="R3">
-        <v>3775.365864451156</v>
+        <v>1326.27415263064</v>
       </c>
       <c r="S3">
-        <v>0.1065146398083164</v>
+        <v>0.05555362089287574</v>
       </c>
       <c r="T3">
-        <v>0.1065146398083164</v>
+        <v>0.05555362089287573</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.32689766666667</v>
+        <v>3.627806666666667</v>
       </c>
       <c r="H4">
-        <v>30.980693</v>
+        <v>10.88342</v>
       </c>
       <c r="I4">
-        <v>0.2044815006034941</v>
+        <v>0.08036675778141429</v>
       </c>
       <c r="J4">
-        <v>0.204481500603494</v>
+        <v>0.08036675778141429</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>20.825229</v>
+        <v>15.419285</v>
       </c>
       <c r="N4">
-        <v>62.475687</v>
+        <v>46.257855</v>
       </c>
       <c r="O4">
-        <v>0.2670535794123827</v>
+        <v>0.2623937562319988</v>
       </c>
       <c r="P4">
-        <v>0.2670535794123827</v>
+        <v>0.2623937562319988</v>
       </c>
       <c r="Q4">
-        <v>215.060008767899</v>
+        <v>55.93818491823334</v>
       </c>
       <c r="R4">
-        <v>1935.540078911091</v>
+        <v>503.4436642641001</v>
       </c>
       <c r="S4">
-        <v>0.05460751665977838</v>
+        <v>0.02108773545045252</v>
       </c>
       <c r="T4">
-        <v>0.05460751665977837</v>
+        <v>0.02108773545045252</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>88.110958</v>
       </c>
       <c r="I5">
-        <v>0.5815577111671272</v>
+        <v>0.6506403335968259</v>
       </c>
       <c r="J5">
-        <v>0.5815577111671272</v>
+        <v>0.6506403335968259</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.535604</v>
+        <v>2.724001666666667</v>
       </c>
       <c r="N5">
-        <v>49.606812</v>
+        <v>8.172005</v>
       </c>
       <c r="O5">
-        <v>0.2120453146491552</v>
+        <v>0.04635500474236593</v>
       </c>
       <c r="P5">
-        <v>0.2120453146491552</v>
+        <v>0.04635500474236593</v>
       </c>
       <c r="Q5">
-        <v>485.655969849544</v>
+        <v>80.00479881453222</v>
       </c>
       <c r="R5">
-        <v>4370.903728645896</v>
+        <v>720.04318933079</v>
       </c>
       <c r="S5">
-        <v>0.123316587851076</v>
+        <v>0.03016043574945542</v>
       </c>
       <c r="T5">
-        <v>0.123316587851076</v>
+        <v>0.03016043574945542</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>88.110958</v>
       </c>
       <c r="I6">
-        <v>0.5815577111671272</v>
+        <v>0.6506403335968259</v>
       </c>
       <c r="J6">
-        <v>0.5815577111671272</v>
+        <v>0.6506403335968259</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>121.861892</v>
       </c>
       <c r="O6">
-        <v>0.5209011059384622</v>
+        <v>0.6912512390256352</v>
       </c>
       <c r="P6">
-        <v>0.5209011059384622</v>
+        <v>0.6912512390256351</v>
       </c>
       <c r="Q6">
         <v>1193.040894201393</v>
@@ -818,10 +818,10 @@
         <v>10737.36804781254</v>
       </c>
       <c r="S6">
-        <v>0.3029340549139973</v>
+        <v>0.4497559367588586</v>
       </c>
       <c r="T6">
-        <v>0.3029340549139973</v>
+        <v>0.4497559367588585</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>88.110958</v>
       </c>
       <c r="I7">
-        <v>0.5815577111671272</v>
+        <v>0.6506403335968259</v>
       </c>
       <c r="J7">
-        <v>0.5815577111671272</v>
+        <v>0.6506403335968259</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>20.825229</v>
+        <v>15.419285</v>
       </c>
       <c r="N7">
-        <v>62.475687</v>
+        <v>46.257855</v>
       </c>
       <c r="O7">
-        <v>0.2670535794123827</v>
+        <v>0.2623937562319988</v>
       </c>
       <c r="P7">
-        <v>0.2670535794123827</v>
+        <v>0.2623937562319988</v>
       </c>
       <c r="Q7">
-        <v>611.643625919794</v>
+        <v>452.8693243416766</v>
       </c>
       <c r="R7">
-        <v>5504.792633278146</v>
+        <v>4075.82391907509</v>
       </c>
       <c r="S7">
-        <v>0.1553070684020539</v>
+        <v>0.170723961088512</v>
       </c>
       <c r="T7">
-        <v>0.1553070684020539</v>
+        <v>0.170723961088512</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>10.80562866666667</v>
+        <v>12.14251133333333</v>
       </c>
       <c r="H8">
-        <v>32.416886</v>
+        <v>36.427534</v>
       </c>
       <c r="I8">
-        <v>0.2139607882293788</v>
+        <v>0.2689929086217598</v>
       </c>
       <c r="J8">
-        <v>0.2139607882293788</v>
+        <v>0.2689929086217598</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>16.535604</v>
+        <v>2.724001666666667</v>
       </c>
       <c r="N8">
-        <v>49.606812</v>
+        <v>8.172005</v>
       </c>
       <c r="O8">
-        <v>0.2120453146491552</v>
+        <v>0.04635500474236593</v>
       </c>
       <c r="P8">
-        <v>0.2120453146491552</v>
+        <v>0.04635500474236593</v>
       </c>
       <c r="Q8">
-        <v>178.677596603048</v>
+        <v>33.07622110951889</v>
       </c>
       <c r="R8">
-        <v>1608.098369427432</v>
+        <v>297.68598998567</v>
       </c>
       <c r="S8">
-        <v>0.0453693826626799</v>
+        <v>0.01246916755482448</v>
       </c>
       <c r="T8">
-        <v>0.0453693826626799</v>
+        <v>0.01246916755482448</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>10.80562866666667</v>
+        <v>12.14251133333333</v>
       </c>
       <c r="H9">
-        <v>32.416886</v>
+        <v>36.427534</v>
       </c>
       <c r="I9">
-        <v>0.2139607882293788</v>
+        <v>0.2689929086217598</v>
       </c>
       <c r="J9">
-        <v>0.2139607882293788</v>
+        <v>0.2689929086217598</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>121.861892</v>
       </c>
       <c r="O9">
-        <v>0.5209011059384622</v>
+        <v>0.6912512390256352</v>
       </c>
       <c r="P9">
-        <v>0.5209011059384622</v>
+        <v>0.6912512390256351</v>
       </c>
       <c r="Q9">
-        <v>438.9314511898124</v>
+        <v>493.2364682371476</v>
       </c>
       <c r="R9">
-        <v>3950.383060708312</v>
+        <v>4439.128214134329</v>
       </c>
       <c r="S9">
-        <v>0.1114524112161485</v>
+        <v>0.185941681373901</v>
       </c>
       <c r="T9">
-        <v>0.1114524112161485</v>
+        <v>0.1859416813739009</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>10.80562866666667</v>
+        <v>12.14251133333333</v>
       </c>
       <c r="H10">
-        <v>32.416886</v>
+        <v>36.427534</v>
       </c>
       <c r="I10">
-        <v>0.2139607882293788</v>
+        <v>0.2689929086217598</v>
       </c>
       <c r="J10">
-        <v>0.2139607882293788</v>
+        <v>0.2689929086217598</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>20.825229</v>
+        <v>15.419285</v>
       </c>
       <c r="N10">
-        <v>62.475687</v>
+        <v>46.257855</v>
       </c>
       <c r="O10">
-        <v>0.2670535794123827</v>
+        <v>0.2623937562319988</v>
       </c>
       <c r="P10">
-        <v>0.2670535794123827</v>
+        <v>0.2623937562319988</v>
       </c>
       <c r="Q10">
-        <v>225.029691472298</v>
+        <v>187.2288428643967</v>
       </c>
       <c r="R10">
-        <v>2025.267223250682</v>
+        <v>1685.05958577957</v>
       </c>
       <c r="S10">
-        <v>0.05713899435055041</v>
+        <v>0.0705820596930344</v>
       </c>
       <c r="T10">
-        <v>0.0571389943505504</v>
+        <v>0.0705820596930344</v>
       </c>
     </row>
   </sheetData>
